--- a/data/input/Liquidaciones (readable)/HFF_Liquidation-8F_Air-AWB_157-84730612.xlsx
+++ b/data/input/Liquidaciones (readable)/HFF_Liquidation-8F_Air-AWB_157-84730612.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe69271b1cb9d7bd/Documentos/HappyFarm/2023-24/8F/Liq- Aereos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaperalta/Library/Mobile Documents/com~apple~CloudDocs/TEMP. 2023-2024/1.Asistencia comercial/3.Liquidaciones/2.Happy Farm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{FA7EF298-ADFB-4A42-85B4-1AFEB715FD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE99AC1A-0263-4C4C-AFED-751A2DE8D0BD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A77B8F-0B60-F044-A95E-2AABEBB6079C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{90454D7F-0486-4368-9E32-4A3321C76B1C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" xr2:uid="{90454D7F-0486-4368-9E32-4A3321C76B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Happy Farm Fruit</t>
   </si>
@@ -584,10 +584,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,28 +885,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0D5B97-B158-4F44-A34D-E695CD113041}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.06640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.59765625" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.59765625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.46484375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="15" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -972,7 +968,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="17.649999999999999">
+    <row r="5" spans="1:17" ht="17">
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
@@ -988,7 +984,7 @@
       <c r="K5" s="34"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="17.649999999999999">
+    <row r="6" spans="1:17" ht="17">
       <c r="A6" s="34" t="s">
         <v>41</v>
       </c>
@@ -1004,7 +1000,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="17.649999999999999">
+    <row r="7" spans="1:17" ht="17">
       <c r="A7" s="34" t="s">
         <v>2</v>
       </c>
@@ -1020,7 +1016,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="17.649999999999999">
+    <row r="8" spans="1:17" ht="17">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17.649999999999999">
+    <row r="9" spans="1:17" ht="17">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1114,7 +1110,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" ht="17.649999999999999">
+    <row r="10" spans="1:17" ht="17">
       <c r="A10" s="2"/>
       <c r="B10" s="9">
         <v>280</v>
@@ -1163,7 +1159,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" ht="17.649999999999999">
+    <row r="11" spans="1:17" ht="17">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1176,7 +1172,9 @@
       <c r="D11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F11" s="11" t="s">
         <v>45</v>
       </c>
@@ -1212,7 +1210,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" ht="17.649999999999999">
+    <row r="12" spans="1:17" ht="17">
       <c r="A12" s="2"/>
       <c r="B12" s="9">
         <v>280</v>
@@ -1223,7 +1221,9 @@
       <c r="D12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F12" s="11" t="s">
         <v>46</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="17.649999999999999">
+    <row r="13" spans="1:17" ht="17">
       <c r="A13" s="2"/>
       <c r="B13" s="9">
         <v>280</v>
@@ -1270,7 +1270,9 @@
       <c r="D13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F13" s="11" t="s">
         <v>50</v>
       </c>
@@ -1297,7 +1299,7 @@
       </c>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" ht="17.649999999999999">
+    <row r="14" spans="1:17" ht="17">
       <c r="A14" s="2"/>
       <c r="B14" s="9">
         <v>280</v>
@@ -1308,7 +1310,9 @@
       <c r="D14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="11" t="s">
         <v>51</v>
       </c>
@@ -1335,7 +1339,7 @@
       </c>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" ht="17.649999999999999">
+    <row r="15" spans="1:17" ht="17">
       <c r="A15" s="2"/>
       <c r="B15" s="9">
         <v>280</v>
@@ -1346,7 +1350,9 @@
       <c r="D15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F15" s="11" t="s">
         <v>56</v>
       </c>
@@ -1377,7 +1383,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" ht="17.649999999999999">
+    <row r="16" spans="1:17" ht="17">
       <c r="A16" s="2"/>
       <c r="B16" s="9">
         <v>280</v>
@@ -1388,7 +1394,9 @@
       <c r="D16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F16" s="11" t="s">
         <v>57</v>
       </c>
@@ -1419,7 +1427,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17" ht="17.649999999999999">
+    <row r="17" spans="1:17" ht="17">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1432,7 +1440,9 @@
       <c r="D17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F17" s="11" t="s">
         <v>45</v>
       </c>
@@ -1459,7 +1469,7 @@
       </c>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17" ht="17.649999999999999">
+    <row r="18" spans="1:17" ht="17">
       <c r="A18" s="2"/>
       <c r="B18" s="9">
         <v>280</v>
@@ -1470,7 +1480,9 @@
       <c r="D18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F18" s="11" t="s">
         <v>44</v>
       </c>
@@ -1497,7 +1509,7 @@
       </c>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:17" ht="17.649999999999999">
+    <row r="19" spans="1:17" ht="17">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1518,7 +1530,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:17" ht="17.649999999999999">
+    <row r="20" spans="1:17" ht="17">
       <c r="A20" s="2"/>
       <c r="B20" s="17"/>
       <c r="C20" s="2"/>
@@ -1537,7 +1549,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:17" ht="17.649999999999999">
+    <row r="21" spans="1:17" ht="17">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -1559,7 +1571,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:17" ht="17.649999999999999">
+    <row r="22" spans="1:17" ht="17">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -1580,7 +1592,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:17" ht="17.649999999999999">
+    <row r="23" spans="1:17" ht="17">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -1601,7 +1613,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="17.649999999999999">
+    <row r="24" spans="1:17" ht="17">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -1622,7 +1634,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:17" ht="17.649999999999999">
+    <row r="25" spans="1:17" ht="17">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -1643,7 +1655,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:17" ht="17.649999999999999">
+    <row r="26" spans="1:17" ht="17">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -1664,7 +1676,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:17" ht="17.649999999999999">
+    <row r="27" spans="1:17" ht="17">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -1685,7 +1697,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:17" ht="17.649999999999999">
+    <row r="28" spans="1:17" ht="17">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -1706,7 +1718,7 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="17.649999999999999">
+    <row r="29" spans="1:17" ht="17">
       <c r="G29" s="25"/>
       <c r="H29" s="26" t="s">
         <v>40</v>
